--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -5,37 +5,29 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\#Software Testing\Selenium\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pranav\eclipse-workspace\AutomationTesting\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD135857-4304-453E-B99B-5887742A5D2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D33FED26-FACF-486C-85B8-E26A47DE4FC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0D57FFE1-84BD-466D-97AB-54EB2647BE20}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{0D57FFE1-84BD-466D-97AB-54EB2647BE20}"/>
   </bookViews>
   <sheets>
     <sheet name="USERDATA" sheetId="1" r:id="rId1"/>
     <sheet name="IPL TEAM" sheetId="2" r:id="rId2"/>
+    <sheet name="OrangeHRMData" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>Username</t>
   </si>
@@ -89,6 +81,15 @@
   </si>
   <si>
     <t>Virat Kohli</t>
+  </si>
+  <si>
+    <t>SRH</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>admin123</t>
   </si>
 </sst>
 </file>
@@ -139,9 +140,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -458,7 +460,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C7E5F2F-56B5-40EF-A877-27B3B4FE3779}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -495,10 +497,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A300E79C-2D97-4391-9672-BD9843D4C2E6}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -593,6 +595,43 @@
         <v>0</v>
       </c>
     </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39FC4928-B780-46B3-8C85-CD3D114471E0}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pranav\eclipse-workspace\AutomationTesting\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D33FED26-FACF-486C-85B8-E26A47DE4FC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF84EEE2-1D63-4816-B66C-180DFC4F15DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{0D57FFE1-84BD-466D-97AB-54EB2647BE20}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{0D57FFE1-84BD-466D-97AB-54EB2647BE20}"/>
   </bookViews>
   <sheets>
     <sheet name="USERDATA" sheetId="1" r:id="rId1"/>
     <sheet name="IPL TEAM" sheetId="2" r:id="rId2"/>
     <sheet name="OrangeHRMData" sheetId="3" r:id="rId3"/>
+    <sheet name="LoginData" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>Username</t>
   </si>
@@ -90,6 +91,18 @@
   </si>
   <si>
     <t>admin123</t>
+  </si>
+  <si>
+    <t>John@123</t>
+  </si>
+  <si>
+    <t>john432@gmail.com</t>
+  </si>
+  <si>
+    <t>Data@123</t>
+  </si>
+  <si>
+    <t>data123@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -105,12 +118,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -140,10 +159,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -618,7 +638,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39FC4928-B780-46B3-8C85-CD3D114471E0}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -635,4 +655,47 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC16EA79-98A2-48FE-801D-AC2676DD951F}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>